--- a/medicine/Handicap/Claudication/Claudication.xlsx
+++ b/medicine/Handicap/Claudication/Claudication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme claudication renvoie à une diminution du périmètre de marche.
 Il est à distinguer du terme boiterie désignant un problème fonctionnel de régularité de la marche :  raccourcissement d'un membre inférieur, ankylose, paralysie totale ou partielle d'un membre inférieur ou du rachis (les causes en sont multiples, par exemple virale par la poliomyélite, structurelle par la maladie d'Ollier).
